--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -2643,9 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A787" workbookViewId="0">
-      <selection activeCell="B813" sqref="B813"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -341,9 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost/tp5/public/</t>
-  </si>
-  <si>
     <r>
       <t>如果正常</t>
     </r>
@@ -621,6 +618,10 @@
       </rPr>
       <t>西)，然后push</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,7 +629,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,6 +650,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,17 +684,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2643,7 +2655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K806"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A385" sqref="A385"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2788,75 +2802,78 @@
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" t="s">
-        <v>28</v>
+      <c r="A384" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A678" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="756" spans="10:11" x14ac:dyDescent="0.15">
       <c r="J756" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K756" s="1"/>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A384" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -2655,8 +2655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K806"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <r>
       <t>１、下</t>
@@ -221,8 +221,36 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>把上面</t>
+    <t>打开命令窗口</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>按顺序执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重启下Apache</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>控制面板里面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>找到Apache，右</t>
     </r>
     <r>
       <rPr>
@@ -233,51 +261,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这两个地方的www改成nikko，你们应该没有tp5以后的东西</t>
+      <t>键重启</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>打开命令窗口</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cd c:\</t>
-  </si>
-  <si>
-    <t>cd C:\AppServ\nikko</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>composer create-project topthink/think tp5</t>
-  </si>
-  <si>
-    <r>
-      <t>按顺序执</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>行</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重启下Apache</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>控制面板里面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>找到Apache，右</t>
+    <r>
+      <t>然后打开</t>
     </r>
     <r>
       <rPr>
@@ -288,13 +278,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>键重启</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>然后打开</t>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器，</t>
     </r>
     <r>
       <rPr>
@@ -305,7 +299,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>浏览</t>
+      <t>输</t>
     </r>
     <r>
       <rPr>
@@ -315,7 +309,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>器，</t>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>如果正常</t>
     </r>
     <r>
       <rPr>
@@ -326,7 +326,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>输</t>
+      <t>显</t>
     </r>
     <r>
       <rPr>
@@ -336,13 +336,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>入</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>如果正常</t>
+      <t>示了，就</t>
     </r>
     <r>
       <rPr>
@@ -353,7 +347,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>显</t>
+      <t>说</t>
     </r>
     <r>
       <rPr>
@@ -363,7 +357,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>示了，就</t>
+      <t>明</t>
     </r>
     <r>
       <rPr>
@@ -374,7 +368,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>说</t>
+      <t>环</t>
     </r>
     <r>
       <rPr>
@@ -384,7 +378,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>明</t>
+      <t>境ok了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/xiazi124020/nikko</t>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
     </r>
     <r>
       <rPr>
@@ -395,23 +402,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>环</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>境ok了</t>
+      <t>击OK</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>在c</t>
+    <t>git基本操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1，比如你新建一个test文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>然后返回c</t>
     </r>
     <r>
       <rPr>
@@ -422,21 +427,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>盘跟根目录下面右键</t>
+      <t>盘根目录</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://github.com/xiazi124020/nikko</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>点</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -446,21 +441,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>击OK</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>git基本操作</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1，比如你新建一个test文件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>然后返回c</t>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个只是提交到本地</t>
     </r>
     <r>
       <rPr>
@@ -471,11 +462,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>盘根目录</t>
+      <t>库</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <t>往服</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -485,7 +479,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这</t>
+      <t>务</t>
     </r>
     <r>
       <rPr>
@@ -495,8 +489,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>个只是提交到本地</t>
-    </r>
+      <t>器提交需要push</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -506,13 +503,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>库</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>往服</t>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里会</t>
     </r>
     <r>
       <rPr>
@@ -523,21 +524,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器提交需要push</t>
+      <t>让你输入git账户</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <r>
+      <t>一般是先commit，然后pull(从服</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -547,7 +541,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这</t>
+      <t>务</t>
     </r>
     <r>
       <rPr>
@@ -557,7 +551,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>里会</t>
+      <t>器上下</t>
     </r>
     <r>
       <rPr>
@@ -568,13 +562,38 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>让你输入git账户</t>
+      <t>东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西)，然后push</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>一般是先commit，然后pull(从服</t>
+    <t>C:\Users\77074&gt;cd c:</t>
+  </si>
+  <si>
+    <t>C:\Users\77074&gt;cd c:\</t>
+  </si>
+  <si>
+    <t>c:\&gt;cd C:\AppServ\nikko</t>
+  </si>
+  <si>
+    <t>C:\AppServ\nikko&gt;composer create-project laravel/laravel --prefer-dist</t>
+  </si>
+  <si>
+    <t>http://localhost/laravel/public/</t>
+  </si>
+  <si>
+    <r>
+      <t>把上面</t>
     </r>
     <r>
       <rPr>
@@ -585,17 +604,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>务</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>器上下</t>
+      <t>这</t>
     </r>
     <r>
       <rPr>
@@ -606,22 +615,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>西)，然后push</t>
+      <t>两个地方的www改成nikko</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost/</t>
+    <r>
+      <t>在C:\AppServ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下面右键</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -629,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,14 +662,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -684,20 +688,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -718,6 +719,120 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="68922900"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550752</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>132455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21431250"/>
+          <a:ext cx="13580952" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550752</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>132455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13887450"/>
+          <a:ext cx="13580952" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
@@ -735,7 +850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -812,56 +927,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550752</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>132455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11830050"/>
-          <a:ext cx="13580952" cy="7161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -870,7 +947,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="14554200"/>
+          <a:off x="0" y="16135350"/>
           <a:ext cx="3667125" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -915,44 +992,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550752</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>132455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="19373850"/>
-          <a:ext cx="13580952" cy="7161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1039,7 +1078,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1255,51 +1294,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>208</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>408409</xdr:colOff>
-      <xdr:row>236</xdr:row>
-      <xdr:rowOff>75590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="35661600"/>
-          <a:ext cx="9323809" cy="4876190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>246</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>427286</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>247</xdr:row>
       <xdr:rowOff>37345</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1331,13 +1332,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1396,13 +1397,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>55900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1434,13 +1435,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>302</xdr:row>
+      <xdr:row>268</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>304</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1499,13 +1500,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>345</xdr:row>
+      <xdr:row>311</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>132390</xdr:colOff>
-      <xdr:row>377</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>161219</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1533,56 +1534,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>449</xdr:row>
-      <xdr:rowOff>170164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="66865500"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>435</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>436</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1591,7 +1554,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791325" y="74580750"/>
+          <a:off x="5648325" y="76923900"/>
           <a:ext cx="2695575" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1640,13 +1603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>454</xdr:row>
+      <xdr:row>420</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>442</xdr:row>
       <xdr:rowOff>170957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1657,7 +1620,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1674,55 +1637,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>482</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>540</xdr:row>
-      <xdr:rowOff>55900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="82638900"/>
-          <a:ext cx="18285714" cy="10000000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>514</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>515</xdr:row>
+      <xdr:row>481</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1781,13 +1706,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>549</xdr:row>
+      <xdr:row>590</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>608</xdr:row>
+      <xdr:row>649</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1798,7 +1723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1819,13 +1744,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>580</xdr:row>
+      <xdr:row>621</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>623</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1884,13 +1809,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>611</xdr:row>
+      <xdr:row>652</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>683</xdr:row>
       <xdr:rowOff>94574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1901,7 +1826,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1922,13 +1847,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>614</xdr:row>
+      <xdr:row>655</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>618</xdr:row>
+      <xdr:row>659</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1987,13 +1912,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>626</xdr:row>
+      <xdr:row>667</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>631</xdr:row>
+      <xdr:row>672</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2052,13 +1977,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>645</xdr:row>
+      <xdr:row>686</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>674</xdr:row>
+      <xdr:row>715</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2069,7 +1994,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2090,13 +2015,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>679</xdr:row>
+      <xdr:row>720</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>738</xdr:row>
+      <xdr:row>779</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2107,7 +2032,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2128,13 +2053,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>741</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>743</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2193,13 +2118,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>741</xdr:row>
+      <xdr:row>782</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504162</xdr:colOff>
-      <xdr:row>769</xdr:row>
+      <xdr:row>810</xdr:row>
       <xdr:rowOff>170829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2210,7 +2135,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2231,13 +2156,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>767</xdr:row>
+      <xdr:row>808</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>811</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2296,18 +2221,94 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>773</xdr:row>
+      <xdr:row>814</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>802</xdr:row>
+      <xdr:row>843</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="132530850"/>
+          <a:ext cx="5904762" cy="5057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="84696300"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>520</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>408409</xdr:colOff>
+      <xdr:row>548</xdr:row>
+      <xdr:rowOff>75590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2320,8 +2321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="132530850"/>
-          <a:ext cx="5904762" cy="5057143"/>
+          <a:off x="0" y="95326200"/>
+          <a:ext cx="9323809" cy="4876190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2653,10 +2654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K806"/>
+  <dimension ref="A1:K847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
+      <selection activeCell="G556" sqref="G556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2748,7 +2749,7 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
@@ -2756,124 +2757,126 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A207" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A448" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A510" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A239" s="2" t="s">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A512" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A515" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A517" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A519" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A551" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A240" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A241" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A242" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A244" t="s">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A552" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A554" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A246" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A381" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A383" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A384" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A386" t="s">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A586" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A389" t="s">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A588" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A479" t="s">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A589" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A719" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A480" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A482" t="s">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A720" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
+    <row r="797" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J797" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A547" t="s">
+      <c r="K797" s="1"/>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A847" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A548" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A678" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A679" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="756" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J756" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K756" s="1"/>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A806" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A384" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -416,9 +416,6 @@
   </si>
   <si>
     <r>
-      <t>然后返回c</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -427,11 +424,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>盘根目录</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个只是提交到本地</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -441,17 +445,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>个只是提交到本地</t>
+      <t>库</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>往服</t>
     </r>
     <r>
       <rPr>
@@ -462,14 +462,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>库</t>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器提交需要push</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>往服</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -479,7 +486,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>务</t>
+      <t>这</t>
     </r>
     <r>
       <rPr>
@@ -489,11 +496,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>器提交需要push</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
+      <t>里会</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -503,17 +507,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>里会</t>
+      <t>让你输入git账户</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一般是先commit，然后pull(从服</t>
     </r>
     <r>
       <rPr>
@@ -524,13 +524,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>让你输入git账户</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>一般是先commit，然后pull(从服</t>
+      <t>务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器上下</t>
     </r>
     <r>
       <rPr>
@@ -541,7 +545,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>务</t>
+      <t>东</t>
     </r>
     <r>
       <rPr>
@@ -551,7 +555,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>器上下</t>
+      <t>西)，然后push</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\77074&gt;cd c:</t>
+  </si>
+  <si>
+    <t>C:\Users\77074&gt;cd c:\</t>
+  </si>
+  <si>
+    <t>c:\&gt;cd C:\AppServ\nikko</t>
+  </si>
+  <si>
+    <t>C:\AppServ\nikko&gt;composer create-project laravel/laravel --prefer-dist</t>
+  </si>
+  <si>
+    <t>http://localhost/laravel/public/</t>
+  </si>
+  <si>
+    <r>
+      <t>把上面</t>
     </r>
     <r>
       <rPr>
@@ -562,38 +587,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>西)，然后push</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C:\Users\77074&gt;cd c:</t>
-  </si>
-  <si>
-    <t>C:\Users\77074&gt;cd c:\</t>
-  </si>
-  <si>
-    <t>c:\&gt;cd C:\AppServ\nikko</t>
-  </si>
-  <si>
-    <t>C:\AppServ\nikko&gt;composer create-project laravel/laravel --prefer-dist</t>
-  </si>
-  <si>
-    <t>http://localhost/laravel/public/</t>
-  </si>
-  <si>
-    <r>
-      <t>把上面</t>
+      <t>这</t>
     </r>
     <r>
       <rPr>
@@ -604,7 +598,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>这</t>
+      <t>两个地方的www改成nikko</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在C:\AppServ</t>
     </r>
     <r>
       <rPr>
@@ -615,13 +615,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>两个地方的www改成nikko</t>
+      <t>下面右键</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>在C:\AppServ</t>
+      <t>然后返回C:\AppServ</t>
     </r>
     <r>
       <rPr>
@@ -632,7 +632,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>下面右键</t>
+      <t>目录</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -719,18 +719,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>720</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>779</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="图片 36"/>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -743,7 +743,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="68922900"/>
+          <a:off x="0" y="123444000"/>
           <a:ext cx="18285714" cy="10285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -757,18 +757,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>590</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550752</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>132455</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>649</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -781,8 +781,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="21431250"/>
-          <a:ext cx="13580952" cy="7161905"/>
+          <a:off x="0" y="101155500"/>
+          <a:ext cx="18285714" cy="10285714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,18 +795,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550752</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>132455</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPr id="37" name="图片 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -819,6 +819,82 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="0" y="68922900"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550752</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>132455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21431250"/>
+          <a:ext cx="13580952" cy="7161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>550752</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>132455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="13887450"/>
           <a:ext cx="13580952" cy="7161905"/>
         </a:xfrm>
@@ -850,7 +926,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1078,7 +1154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1311,7 +1387,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1414,7 +1490,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1517,7 +1593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1620,7 +1696,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1702,44 +1778,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>590</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>649</xdr:row>
-      <xdr:rowOff>170164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="94126050"/>
-          <a:ext cx="18285714" cy="10285714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1826,7 +1864,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1994,44 +2032,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="110585250"/>
-          <a:ext cx="5904762" cy="5057143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>720</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>779</xdr:row>
-      <xdr:rowOff>170164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
@@ -2039,8 +2039,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="116414550"/>
-          <a:ext cx="18285714" cy="10285714"/>
+          <a:off x="0" y="110585250"/>
+          <a:ext cx="5904762" cy="5057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2656,9 +2656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K847"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A529" workbookViewId="0">
-      <selection activeCell="G556" sqref="G556"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2749,7 +2747,7 @@
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.15">
@@ -2774,7 +2772,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.15">
@@ -2804,22 +2802,22 @@
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.15">
@@ -2829,7 +2827,7 @@
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.15">
@@ -2849,28 +2847,28 @@
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A719" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="797" spans="10:11" x14ac:dyDescent="0.15">
       <c r="J797" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K797" s="1"/>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A847" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <r>
       <t>１、下</t>
@@ -633,6 +633,33 @@
         <scheme val="minor"/>
       </rPr>
       <t>目录</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>执</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行看看能不能跑起来</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -665,7 +692,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,6 +702,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,11 +724,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2656,7 +2691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K847"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A510" sqref="A510"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2790,33 +2827,42 @@
         <v>27</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A510" t="s">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A509" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A511" s="2" t="s">
+    <row r="511" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A512" t="s">
+    <row r="512" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A515" t="s">
+    <row r="513" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="514" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="515" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A517" t="s">
+    <row r="516" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="517" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A519" t="s">
+    <row r="518" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="519" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="4" t="s">
         <v>37</v>
       </c>
     </row>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="软件安装" sheetId="1" r:id="rId1"/>
+    <sheet name="建库建表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <r>
       <t>１、下</t>
@@ -660,6 +661,399 @@
         <scheme val="minor"/>
       </rPr>
       <t>行看看能不能跑起来</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\77074&gt;mysql -u root -p</t>
+  </si>
+  <si>
+    <t>Enter password: ********</t>
+  </si>
+  <si>
+    <t>Welcome to the MySQL monitor.  Commands end with ; or \g.</t>
+  </si>
+  <si>
+    <t>Your MySQL connection id is 8</t>
+  </si>
+  <si>
+    <t>Server version: 5.7.17-log MySQL Community Server (GPL)</t>
+  </si>
+  <si>
+    <t>Copyright (c) 2000, 2016, Oracle and/or its affiliates. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Oracle is a registered trademark of Oracle Corporation and/or its</t>
+  </si>
+  <si>
+    <t>affiliates. Other names may be trademarks of their respective</t>
+  </si>
+  <si>
+    <t>owners.</t>
+  </si>
+  <si>
+    <t>Type 'help;' or '\h' for help. Type '\c' to clear the current input statement.</t>
+  </si>
+  <si>
+    <t>mysql&gt; create database nikkotech_wp5</t>
+  </si>
+  <si>
+    <r>
+      <t>配置数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库，密码自己换一下</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>打开之前安装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>环</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>境的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A5</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>名，密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码，db：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nikkotech_wp5</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>db是上面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>候的</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击测试连接</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>成功的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话就ok了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>把nikko\ddl下面的建表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>句拷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到A5，全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后按Ctrl+回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就完成建表了</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -668,7 +1062,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +1083,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,13 +1156,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>720</xdr:row>
+      <xdr:row>700</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>779</xdr:row>
+      <xdr:row>759</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -792,13 +1194,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>590</xdr:row>
+      <xdr:row>570</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>629</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1817,13 +2219,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>621</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>623</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1882,13 +2284,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>652</xdr:row>
+      <xdr:row>632</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>683</xdr:row>
+      <xdr:row>663</xdr:row>
       <xdr:rowOff>94574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1920,13 +2322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>655</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>659</xdr:row>
+      <xdr:row>639</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1985,13 +2387,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>647</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>672</xdr:row>
+      <xdr:row>652</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2050,13 +2452,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>686</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>715</xdr:row>
+      <xdr:row>695</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2088,13 +2490,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>741</xdr:row>
+      <xdr:row>721</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>743</xdr:row>
+      <xdr:row>723</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2153,13 +2555,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>782</xdr:row>
+      <xdr:row>762</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504162</xdr:colOff>
-      <xdr:row>810</xdr:row>
+      <xdr:row>790</xdr:row>
       <xdr:rowOff>170829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2191,13 +2593,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>808</xdr:row>
+      <xdr:row>788</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>811</xdr:row>
+      <xdr:row>791</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2256,13 +2658,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>814</xdr:row>
+      <xdr:row>794</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>843</xdr:row>
+      <xdr:row>823</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2358,6 +2760,577 @@
         <a:xfrm>
           <a:off x="0" y="95326200"/>
           <a:ext cx="9323809" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151181</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4629150"/>
+          <a:ext cx="9752381" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3762375" y="6991350"/>
+          <a:ext cx="4400550" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>151181</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>113386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12344400"/>
+          <a:ext cx="9752381" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3238500" y="14335125"/>
+          <a:ext cx="2447925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20745450"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="23040975"/>
+          <a:ext cx="3086100" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="31546800"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5219700" y="38309550"/>
+          <a:ext cx="895350" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42176700"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="46672500"/>
+          <a:ext cx="4695825" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="52978050"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="64979550"/>
+          <a:ext cx="18285714" cy="10000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2689,11 +3662,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K847"/>
+  <dimension ref="A1:K827"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="A510" sqref="A510"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2881,40 +3852,153 @@
         <v>24</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A586" t="s">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A566" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A588" t="s">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A568" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A589" t="s">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A569" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A719" s="2" t="s">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A699" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A720" t="s">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A700" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="797" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J797" s="3" t="s">
+    <row r="777" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J777" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K797" s="1"/>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A847" t="s">
+      <c r="K777" s="1"/>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A827" t="s">
         <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A378"/>
+  <sheetViews>
+    <sheetView topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="A379" sqref="A379"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A372" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
     <sheet name="建库建表" sheetId="2" r:id="rId2"/>
+    <sheet name="templete" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <r>
       <t>１、下</t>
@@ -1054,6 +1055,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>就完成建表了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>咱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>们社内系统用到的模板在nikko\templete下面</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -3664,7 +3682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K827"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -4007,4 +4025,30 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <r>
       <t>１、下</t>
@@ -1074,13 +1074,33 @@
       <t>们社内系统用到的模板在nikko\templete下面</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>登</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录页面地址</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/admin/login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1129,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1141,19 +1169,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4029,10 +4060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4046,9 +4077,22 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -1093,7 +1093,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://localhost/admin/login</t>
+    <t>http://localhost/login</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4063,7 +4064,7 @@
   <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/社内システム開発環境構築.xlsx
+++ b/社内システム開発環境構築.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
     <sheet name="建库建表" sheetId="2" r:id="rId2"/>
     <sheet name="templete" sheetId="3" r:id="rId3"/>
+    <sheet name="vscode debug" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <r>
       <t>１、下</t>
@@ -1094,6 +1095,324 @@
   </si>
   <si>
     <t>http://localhost/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1，php版本确定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\77074&gt;php -v</t>
+  </si>
+  <si>
+    <t>PHP 7.1.1 (cli) (built: Jan 18 2017 18:51:14) ( ZTS MSVC14 (Visual C++ 2015) x86 )</t>
+  </si>
+  <si>
+    <t>Copyright (c) 1997-2017 The PHP Group</t>
+  </si>
+  <si>
+    <t>Zend Engine v3.1.0, Copyright (c) 1998-2017 Zend Technologies</t>
+  </si>
+  <si>
+    <r>
+      <t>2， XDEBUG下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>载，注意php版本</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://xdebug.org/download.php</t>
+  </si>
+  <si>
+    <r>
+      <t>3，将此dll放入PHP的ext文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>夹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中，</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>4，修改PHP.ini文件，在其最后加入三句</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[xdebug]</t>
+  </si>
+  <si>
+    <t>xdebug.remote_enable = 1</t>
+  </si>
+  <si>
+    <t>xdebug.remote_autostart = 1</t>
+  </si>
+  <si>
+    <r>
+      <t>5，VSCode中安装php debug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插件。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>击绿三角符</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>启动，调试，打个断点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zend_extension = C:\AppServ\php7\ext\php_xdebug-2.7.2-7.1-vc14.dll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php_xdebug-2.7.2-7.1-vc14.dll</t>
+  </si>
+  <si>
+    <t>访问</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost/test_dubug.php</t>
+  </si>
+  <si>
+    <r>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发现进入断点了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不来，那就是版本没</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新建一个php文件，加入以下内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?php</t>
+  </si>
+  <si>
+    <t>?&gt;</t>
+  </si>
+  <si>
+    <t>phpinfo();</t>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问这个php文件，Ctrl+a全选</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>粘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贴到下面的网址</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://xdebug.org/wizard.php</t>
+  </si>
+  <si>
+    <r>
+      <t>然后会告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>诉你下什么版本</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3387,6 +3706,975 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2400300"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>215</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26917650"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="6753225"/>
+          <a:ext cx="7448550" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15944850"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="16830675"/>
+          <a:ext cx="2390775" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562225" y="27822525"/>
+          <a:ext cx="2609850" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="28679775"/>
+          <a:ext cx="561975" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943100" y="27231975"/>
+          <a:ext cx="438150" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="37376100"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="37604700"/>
+          <a:ext cx="1190625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48006000"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="49082325"/>
+          <a:ext cx="2457450" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14335125" y="48263175"/>
+          <a:ext cx="2733675" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="58807350"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="68627625"/>
+          <a:ext cx="762000" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="69608700"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>485</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>543</xdr:row>
+      <xdr:rowOff>55900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="83153250"/>
+          <a:ext cx="18285714" cy="10000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>503</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>523</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="86306025"/>
+          <a:ext cx="6638925" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>531</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2905125" y="90468450"/>
+          <a:ext cx="3067050" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4063,7 +5351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4096,4 +5384,176 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E548"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A513" workbookViewId="0">
+      <selection activeCell="A549" sqref="A549"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A342" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E342" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A343" s="2"/>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A468" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A470" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A471" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A473" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A474" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A477" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A479" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A482" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A548" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="B342" r:id="rId2"/>
+    <hyperlink ref="A482" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+</worksheet>
 </file>